--- a/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
+++ b/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,209 +452,473 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>816</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>528</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>888</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>600</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2976</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1392</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>432</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>464</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>176</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>912</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>368</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45544</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>304</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45551</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>352</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45558</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>976</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>512</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>912</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
         <v>1296</v>
       </c>
     </row>
@@ -669,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,81 +955,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>960</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2040</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2976</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1408</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>752</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>720</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>384</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1632</v>
+        <v>952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>2720</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
+++ b/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -949,7 +950,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1127,6 +1128,985 @@
       </c>
       <c r="B23" t="n">
         <v>2720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>145</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-500.7677962670133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>788.6562740125271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>169</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-438.7155412751903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>769.9282393035786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>175</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-484.2055600291505</v>
+      </c>
+      <c r="D4" t="n">
+        <v>854.1493955883936</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>199</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-431.7367979564793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>850.0654662521536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>205</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-407.5971696124267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>874.4109181504057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-412.4089568797188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>820.7207156626009</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>223</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-373.6194209032026</v>
+      </c>
+      <c r="D8" t="n">
+        <v>870.8315577982767</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>229</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-354.0138622432213</v>
+      </c>
+      <c r="D9" t="n">
+        <v>892.0367101067736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-340.8248475839889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>870.8448617881958</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>241</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-345.887460704431</v>
+      </c>
+      <c r="D11" t="n">
+        <v>892.290368620776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>247</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-354.8043723941048</v>
+      </c>
+      <c r="D12" t="n">
+        <v>903.8538766158891</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>253</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-391.0967632147011</v>
+      </c>
+      <c r="D13" t="n">
+        <v>881.6912654737064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>259</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-346.0661794857824</v>
+      </c>
+      <c r="D14" t="n">
+        <v>913.8998049653206</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>277</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-360.7956964493622</v>
+      </c>
+      <c r="D15" t="n">
+        <v>927.9186672537063</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>295</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-329.5310727953462</v>
+      </c>
+      <c r="D16" t="n">
+        <v>952.5149335972839</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>319</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-286.4501008354696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>944.8096619100243</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>325</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-318.1586922773513</v>
+      </c>
+      <c r="D18" t="n">
+        <v>957.917602354607</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>331</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-268.8303996776658</v>
+      </c>
+      <c r="D19" t="n">
+        <v>975.9335303674883</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>337</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-291.826335620028</v>
+      </c>
+      <c r="D20" t="n">
+        <v>985.2361604589684</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-263.3056746737724</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1027.658020467412</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>355</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-312.4005421097748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>972.5321836867513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>361</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-277.4278901512515</v>
+      </c>
+      <c r="D23" t="n">
+        <v>999.7379639270051</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>368</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-338.3987727135795</v>
+      </c>
+      <c r="D24" t="n">
+        <v>985.3825331013586</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>374</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-246.6233170863581</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1029.276479279612</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>380</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-177.8729362604974</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1024.788239117378</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>386</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-237.0614968614954</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1031.069809195132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>392</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-286.0264976925156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1038.515298261035</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>398</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-246.1944111579259</v>
+      </c>
+      <c r="D29" t="n">
+        <v>994.7892279526835</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>410</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-172.7095536586696</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1098.914673126329</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>416</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-213.1843678424544</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1088.508589792698</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>422</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-221.0841121732408</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1005.184315696313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>428</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-171.7120174849763</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1030.218620025457</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>434</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-215.6034774426821</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1058.343922451854</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>458</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-153.6822639476281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1041.064242919036</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>464</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-168.4690783882716</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1098.329392040604</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>470</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-136.0287066215668</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1101.876707177926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>488</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-127.568626084445</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1129.763751343821</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>494</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-156.2068706619311</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1107.948620382247</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>500</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-116.5412785301886</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1136.531745059375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>506</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-122.9434305097421</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1130.234981480149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>512</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-125.5959955208131</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1111.29033195754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>542</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-120.2418172160425</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1194.453262487953</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>548</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-116.4610076177718</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1127.992041398697</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>566</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-50.01748712423286</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1148.225917963648</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>572</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-69.19312105417256</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1183.459442174422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>596</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-16.20332025018722</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1214.614954098477</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>602</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-17.47630848702078</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1214.016353586795</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>608</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.530735186970352</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1251.758453055968</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>620</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-51.25423689942264</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1258.133664955974</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>626</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23.21512282517674</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1220.948667084749</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>632</v>
+      </c>
+      <c r="C52" t="n">
+        <v>39.35099303367649</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1220.994280154817</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>650</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.873857220762909</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1291.75837292864</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>656</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18.3356064541907</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1301.391120077184</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>674</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.995283143096022</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1290.865647810075</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>680</v>
+      </c>
+      <c r="C56" t="n">
+        <v>51.78127857405276</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1272.395497945312</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>686</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.1390865044731</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1267.057401110992</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>699</v>
+      </c>
+      <c r="C58" t="n">
+        <v>53.64209056607006</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1347.156752663944</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>705</v>
+      </c>
+      <c r="C59" t="n">
+        <v>114.6669531092474</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1348.787836924965</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>711</v>
+      </c>
+      <c r="C60" t="n">
+        <v>113.1496505167602</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1368.357319380273</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>717</v>
+      </c>
+      <c r="C61" t="n">
+        <v>99.6643315434322</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1354.037430220066</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>723</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90.1448858880475</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1384.278742391003</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>729</v>
+      </c>
+      <c r="C63" t="n">
+        <v>107.5470547501679</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1357.397311382612</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>735</v>
+      </c>
+      <c r="C64" t="n">
+        <v>87.27172577518694</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1367.736538207226</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>741</v>
+      </c>
+      <c r="C65" t="n">
+        <v>118.1373359228475</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1402.294015876231</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>747</v>
+      </c>
+      <c r="C66" t="n">
+        <v>107.0957025271351</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1410.856289991771</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>753</v>
+      </c>
+      <c r="C67" t="n">
+        <v>147.041212533441</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1402.413037780157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>759</v>
+      </c>
+      <c r="C68" t="n">
+        <v>95.12825100562168</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1394.602739954754</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
+++ b/po_analysis_by_asin/B08KGVH7YC_po_data.xlsx
@@ -1141,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,16 +1160,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1178,12 +1168,6 @@
       <c r="B2" t="n">
         <v>145</v>
       </c>
-      <c r="C2" t="n">
-        <v>-500.7677962670133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>788.6562740125271</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1192,12 +1176,6 @@
       <c r="B3" t="n">
         <v>169</v>
       </c>
-      <c r="C3" t="n">
-        <v>-438.7155412751903</v>
-      </c>
-      <c r="D3" t="n">
-        <v>769.9282393035786</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1206,12 +1184,6 @@
       <c r="B4" t="n">
         <v>175</v>
       </c>
-      <c r="C4" t="n">
-        <v>-484.2055600291505</v>
-      </c>
-      <c r="D4" t="n">
-        <v>854.1493955883936</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1220,12 +1192,6 @@
       <c r="B5" t="n">
         <v>199</v>
       </c>
-      <c r="C5" t="n">
-        <v>-431.7367979564793</v>
-      </c>
-      <c r="D5" t="n">
-        <v>850.0654662521536</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1234,12 +1200,6 @@
       <c r="B6" t="n">
         <v>205</v>
       </c>
-      <c r="C6" t="n">
-        <v>-407.5971696124267</v>
-      </c>
-      <c r="D6" t="n">
-        <v>874.4109181504057</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1248,12 +1208,6 @@
       <c r="B7" t="n">
         <v>211</v>
       </c>
-      <c r="C7" t="n">
-        <v>-412.4089568797188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>820.7207156626009</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1262,12 +1216,6 @@
       <c r="B8" t="n">
         <v>223</v>
       </c>
-      <c r="C8" t="n">
-        <v>-373.6194209032026</v>
-      </c>
-      <c r="D8" t="n">
-        <v>870.8315577982767</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1276,12 +1224,6 @@
       <c r="B9" t="n">
         <v>229</v>
       </c>
-      <c r="C9" t="n">
-        <v>-354.0138622432213</v>
-      </c>
-      <c r="D9" t="n">
-        <v>892.0367101067736</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1290,12 +1232,6 @@
       <c r="B10" t="n">
         <v>235</v>
       </c>
-      <c r="C10" t="n">
-        <v>-340.8248475839889</v>
-      </c>
-      <c r="D10" t="n">
-        <v>870.8448617881958</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1304,12 +1240,6 @@
       <c r="B11" t="n">
         <v>241</v>
       </c>
-      <c r="C11" t="n">
-        <v>-345.887460704431</v>
-      </c>
-      <c r="D11" t="n">
-        <v>892.290368620776</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1318,12 +1248,6 @@
       <c r="B12" t="n">
         <v>247</v>
       </c>
-      <c r="C12" t="n">
-        <v>-354.8043723941048</v>
-      </c>
-      <c r="D12" t="n">
-        <v>903.8538766158891</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1332,12 +1256,6 @@
       <c r="B13" t="n">
         <v>253</v>
       </c>
-      <c r="C13" t="n">
-        <v>-391.0967632147011</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.6912654737064</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1346,12 +1264,6 @@
       <c r="B14" t="n">
         <v>259</v>
       </c>
-      <c r="C14" t="n">
-        <v>-346.0661794857824</v>
-      </c>
-      <c r="D14" t="n">
-        <v>913.8998049653206</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1360,12 +1272,6 @@
       <c r="B15" t="n">
         <v>277</v>
       </c>
-      <c r="C15" t="n">
-        <v>-360.7956964493622</v>
-      </c>
-      <c r="D15" t="n">
-        <v>927.9186672537063</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1374,12 +1280,6 @@
       <c r="B16" t="n">
         <v>295</v>
       </c>
-      <c r="C16" t="n">
-        <v>-329.5310727953462</v>
-      </c>
-      <c r="D16" t="n">
-        <v>952.5149335972839</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1388,12 +1288,6 @@
       <c r="B17" t="n">
         <v>319</v>
       </c>
-      <c r="C17" t="n">
-        <v>-286.4501008354696</v>
-      </c>
-      <c r="D17" t="n">
-        <v>944.8096619100243</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1402,12 +1296,6 @@
       <c r="B18" t="n">
         <v>325</v>
       </c>
-      <c r="C18" t="n">
-        <v>-318.1586922773513</v>
-      </c>
-      <c r="D18" t="n">
-        <v>957.917602354607</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1416,12 +1304,6 @@
       <c r="B19" t="n">
         <v>331</v>
       </c>
-      <c r="C19" t="n">
-        <v>-268.8303996776658</v>
-      </c>
-      <c r="D19" t="n">
-        <v>975.9335303674883</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1430,12 +1312,6 @@
       <c r="B20" t="n">
         <v>337</v>
       </c>
-      <c r="C20" t="n">
-        <v>-291.826335620028</v>
-      </c>
-      <c r="D20" t="n">
-        <v>985.2361604589684</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1444,12 +1320,6 @@
       <c r="B21" t="n">
         <v>343</v>
       </c>
-      <c r="C21" t="n">
-        <v>-263.3056746737724</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1027.658020467412</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1458,12 +1328,6 @@
       <c r="B22" t="n">
         <v>355</v>
       </c>
-      <c r="C22" t="n">
-        <v>-312.4005421097748</v>
-      </c>
-      <c r="D22" t="n">
-        <v>972.5321836867513</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1472,12 +1336,6 @@
       <c r="B23" t="n">
         <v>361</v>
       </c>
-      <c r="C23" t="n">
-        <v>-277.4278901512515</v>
-      </c>
-      <c r="D23" t="n">
-        <v>999.7379639270051</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1486,12 +1344,6 @@
       <c r="B24" t="n">
         <v>368</v>
       </c>
-      <c r="C24" t="n">
-        <v>-338.3987727135795</v>
-      </c>
-      <c r="D24" t="n">
-        <v>985.3825331013586</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1500,12 +1352,6 @@
       <c r="B25" t="n">
         <v>374</v>
       </c>
-      <c r="C25" t="n">
-        <v>-246.6233170863581</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1029.276479279612</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1514,12 +1360,6 @@
       <c r="B26" t="n">
         <v>380</v>
       </c>
-      <c r="C26" t="n">
-        <v>-177.8729362604974</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1024.788239117378</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1528,12 +1368,6 @@
       <c r="B27" t="n">
         <v>386</v>
       </c>
-      <c r="C27" t="n">
-        <v>-237.0614968614954</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1031.069809195132</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1542,12 +1376,6 @@
       <c r="B28" t="n">
         <v>392</v>
       </c>
-      <c r="C28" t="n">
-        <v>-286.0264976925156</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1038.515298261035</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1556,12 +1384,6 @@
       <c r="B29" t="n">
         <v>398</v>
       </c>
-      <c r="C29" t="n">
-        <v>-246.1944111579259</v>
-      </c>
-      <c r="D29" t="n">
-        <v>994.7892279526835</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1570,12 +1392,6 @@
       <c r="B30" t="n">
         <v>410</v>
       </c>
-      <c r="C30" t="n">
-        <v>-172.7095536586696</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1098.914673126329</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1584,12 +1400,6 @@
       <c r="B31" t="n">
         <v>416</v>
       </c>
-      <c r="C31" t="n">
-        <v>-213.1843678424544</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1088.508589792698</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1598,12 +1408,6 @@
       <c r="B32" t="n">
         <v>422</v>
       </c>
-      <c r="C32" t="n">
-        <v>-221.0841121732408</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1005.184315696313</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1612,12 +1416,6 @@
       <c r="B33" t="n">
         <v>428</v>
       </c>
-      <c r="C33" t="n">
-        <v>-171.7120174849763</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1030.218620025457</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1626,12 +1424,6 @@
       <c r="B34" t="n">
         <v>434</v>
       </c>
-      <c r="C34" t="n">
-        <v>-215.6034774426821</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1058.343922451854</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1640,12 +1432,6 @@
       <c r="B35" t="n">
         <v>458</v>
       </c>
-      <c r="C35" t="n">
-        <v>-153.6822639476281</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1041.064242919036</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1654,12 +1440,6 @@
       <c r="B36" t="n">
         <v>464</v>
       </c>
-      <c r="C36" t="n">
-        <v>-168.4690783882716</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1098.329392040604</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1668,12 +1448,6 @@
       <c r="B37" t="n">
         <v>470</v>
       </c>
-      <c r="C37" t="n">
-        <v>-136.0287066215668</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1101.876707177926</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1682,12 +1456,6 @@
       <c r="B38" t="n">
         <v>488</v>
       </c>
-      <c r="C38" t="n">
-        <v>-127.568626084445</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1129.763751343821</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1696,12 +1464,6 @@
       <c r="B39" t="n">
         <v>494</v>
       </c>
-      <c r="C39" t="n">
-        <v>-156.2068706619311</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1107.948620382247</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1710,12 +1472,6 @@
       <c r="B40" t="n">
         <v>500</v>
       </c>
-      <c r="C40" t="n">
-        <v>-116.5412785301886</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1136.531745059375</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1724,12 +1480,6 @@
       <c r="B41" t="n">
         <v>506</v>
       </c>
-      <c r="C41" t="n">
-        <v>-122.9434305097421</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1130.234981480149</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1738,12 +1488,6 @@
       <c r="B42" t="n">
         <v>512</v>
       </c>
-      <c r="C42" t="n">
-        <v>-125.5959955208131</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1111.29033195754</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1752,12 +1496,6 @@
       <c r="B43" t="n">
         <v>542</v>
       </c>
-      <c r="C43" t="n">
-        <v>-120.2418172160425</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1194.453262487953</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1766,12 +1504,6 @@
       <c r="B44" t="n">
         <v>548</v>
       </c>
-      <c r="C44" t="n">
-        <v>-116.4610076177718</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1127.992041398697</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1780,12 +1512,6 @@
       <c r="B45" t="n">
         <v>566</v>
       </c>
-      <c r="C45" t="n">
-        <v>-50.01748712423286</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1148.225917963648</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1794,12 +1520,6 @@
       <c r="B46" t="n">
         <v>572</v>
       </c>
-      <c r="C46" t="n">
-        <v>-69.19312105417256</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1183.459442174422</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1808,12 +1528,6 @@
       <c r="B47" t="n">
         <v>596</v>
       </c>
-      <c r="C47" t="n">
-        <v>-16.20332025018722</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1214.614954098477</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1822,12 +1536,6 @@
       <c r="B48" t="n">
         <v>602</v>
       </c>
-      <c r="C48" t="n">
-        <v>-17.47630848702078</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1214.016353586795</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1836,12 +1544,6 @@
       <c r="B49" t="n">
         <v>608</v>
       </c>
-      <c r="C49" t="n">
-        <v>-1.530735186970352</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1251.758453055968</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1850,12 +1552,6 @@
       <c r="B50" t="n">
         <v>620</v>
       </c>
-      <c r="C50" t="n">
-        <v>-51.25423689942264</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1258.133664955974</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1864,12 +1560,6 @@
       <c r="B51" t="n">
         <v>626</v>
       </c>
-      <c r="C51" t="n">
-        <v>23.21512282517674</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1220.948667084749</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1878,12 +1568,6 @@
       <c r="B52" t="n">
         <v>632</v>
       </c>
-      <c r="C52" t="n">
-        <v>39.35099303367649</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1220.994280154817</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1892,12 +1576,6 @@
       <c r="B53" t="n">
         <v>650</v>
       </c>
-      <c r="C53" t="n">
-        <v>2.873857220762909</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1291.75837292864</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1906,12 +1584,6 @@
       <c r="B54" t="n">
         <v>656</v>
       </c>
-      <c r="C54" t="n">
-        <v>18.3356064541907</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1301.391120077184</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1920,12 +1592,6 @@
       <c r="B55" t="n">
         <v>674</v>
       </c>
-      <c r="C55" t="n">
-        <v>7.995283143096022</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1290.865647810075</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1934,12 +1600,6 @@
       <c r="B56" t="n">
         <v>680</v>
       </c>
-      <c r="C56" t="n">
-        <v>51.78127857405276</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1272.395497945312</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1948,12 +1608,6 @@
       <c r="B57" t="n">
         <v>686</v>
       </c>
-      <c r="C57" t="n">
-        <v>21.1390865044731</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1267.057401110992</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1962,12 +1616,6 @@
       <c r="B58" t="n">
         <v>699</v>
       </c>
-      <c r="C58" t="n">
-        <v>53.64209056607006</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1347.156752663944</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1976,12 +1624,6 @@
       <c r="B59" t="n">
         <v>705</v>
       </c>
-      <c r="C59" t="n">
-        <v>114.6669531092474</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1348.787836924965</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1990,12 +1632,6 @@
       <c r="B60" t="n">
         <v>711</v>
       </c>
-      <c r="C60" t="n">
-        <v>113.1496505167602</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1368.357319380273</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2004,12 +1640,6 @@
       <c r="B61" t="n">
         <v>717</v>
       </c>
-      <c r="C61" t="n">
-        <v>99.6643315434322</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1354.037430220066</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2018,12 +1648,6 @@
       <c r="B62" t="n">
         <v>723</v>
       </c>
-      <c r="C62" t="n">
-        <v>90.1448858880475</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1384.278742391003</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2032,12 +1656,6 @@
       <c r="B63" t="n">
         <v>729</v>
       </c>
-      <c r="C63" t="n">
-        <v>107.5470547501679</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1357.397311382612</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2046,12 +1664,6 @@
       <c r="B64" t="n">
         <v>735</v>
       </c>
-      <c r="C64" t="n">
-        <v>87.27172577518694</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1367.736538207226</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2060,12 +1672,6 @@
       <c r="B65" t="n">
         <v>741</v>
       </c>
-      <c r="C65" t="n">
-        <v>118.1373359228475</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1402.294015876231</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2074,12 +1680,6 @@
       <c r="B66" t="n">
         <v>747</v>
       </c>
-      <c r="C66" t="n">
-        <v>107.0957025271351</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1410.856289991771</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2088,12 +1688,6 @@
       <c r="B67" t="n">
         <v>753</v>
       </c>
-      <c r="C67" t="n">
-        <v>147.041212533441</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1402.413037780157</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2101,12 +1695,6 @@
       </c>
       <c r="B68" t="n">
         <v>759</v>
-      </c>
-      <c r="C68" t="n">
-        <v>95.12825100562168</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1394.602739954754</v>
       </c>
     </row>
   </sheetData>
